--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2004-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2004-12-31-2008-09-30.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>FFR_LF</t>
+    <t>A_C</t>
   </si>
   <si>
-    <t>LF_CA</t>
+    <t>LF_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.190242425326073</v>
+        <v>1.061839086070209</v>
       </c>
       <c r="C2">
-        <v>0.4208144644266629</v>
+        <v>-0.9000230269908649</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.15578970045771E-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2004-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2004-12-31-2008-09-30.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A_C</t>
+  </si>
+  <si>
+    <t>A_LF</t>
+  </si>
+  <si>
+    <t>FFR_LF</t>
   </si>
   <si>
     <t>LF_FFR</t>
@@ -383,39 +389,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1.061839086070209</v>
+        <v>0.464722090331432</v>
       </c>
       <c r="C2">
-        <v>-0.9000230269908649</v>
+        <v>-0.00961328564128364</v>
+      </c>
+      <c r="D2">
+        <v>2.378522371567055</v>
+      </c>
+      <c r="E2">
+        <v>0.4078882327616589</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
+        <v>0.01503618942925478</v>
+      </c>
+      <c r="C3">
+        <v>0.003808133919186218</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
